--- a/GameConfig/Datas/文本配置表.xlsx
+++ b/GameConfig/Datas/文本配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\GitHub Project\DGame\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D9328E-C0E0-4747-A54B-A6DA674BBEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44E579B-3C43-4F0F-8FDF-98225B8B6D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -120,6 +120,30 @@
   <si>
     <t>内容是 string 数组类型，数组索引对应 LocalizationType 枚举</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111{0}</t>
+  </si>
+  <si>
+    <t>11{0}11{1}</t>
+  </si>
+  <si>
+    <t>退出游戏</t>
+  </si>
+  <si>
+    <t>测试输出</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>开始游戏</t>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>测试3</t>
   </si>
 </sst>
 </file>
@@ -268,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,12 +352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -684,22 +702,28 @@
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
       <c r="N2" s="5"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -725,17 +749,11 @@
     </row>
     <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>21</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="19"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -768,22 +786,30 @@
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
     </row>
-    <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="N4" s="5"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -811,19 +837,15 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -854,120 +876,121 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
     </row>
-    <row r="6" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>10000001</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
-        <v>10000001</v>
+        <v>10000002</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J7" s="8"/>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
-        <v>10000002</v>
+        <v>10000003</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J8" s="8"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
-        <v>10000003</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>20</v>
+        <v>20000001</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1111</v>
       </c>
       <c r="J9" s="8"/>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="D10" s="7"/>
+      <c r="B10" s="3">
+        <v>20000002</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="D11" s="11"/>
+      <c r="B11" s="3">
+        <v>20000003</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="J11" s="8"/>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="3">
+        <v>30000008</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="D13" s="7"/>
-      <c r="J13" s="8"/>
+      <c r="B13" s="3">
+        <v>30000009</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="J13" s="9"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>30000010</v>
+      </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -975,30 +998,145 @@
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>30000011</v>
+      </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="8"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="B16" s="3">
+        <v>30000012</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>30000013</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>30000014</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>30000015</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>30000016</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>30000017</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>30000018</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>30000019</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <v>30000020</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <v>30000021</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>30000022</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>30000023</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>30000024</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>30000025</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>30000026</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameConfig/Datas/文本配置表.xlsx
+++ b/GameConfig/Datas/文本配置表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -90,6 +90,75 @@
   </si>
   <si>
     <t>INDO</t>
+  </si>
+  <si>
+    <t>{0}天{1}时{2}分</t>
+  </si>
+  <si>
+    <t>{0}天 {1}：{2}：{3}</t>
+  </si>
+  <si>
+    <t>{0}小时{1}分钟</t>
+  </si>
+  <si>
+    <t>{0}天{1}时{2}分{3}秒</t>
+  </si>
+  <si>
+    <t>{0}时{1}分{2}秒</t>
+  </si>
+  <si>
+    <t>{0}分{1}{2}秒</t>
+  </si>
+  <si>
+    <t>{0}分{1}秒</t>
+  </si>
+  <si>
+    <t>零</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>八</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>刚刚</t>
+  </si>
+  <si>
+    <t>{0}分前</t>
+  </si>
+  <si>
+    <t>{0}时{1}分前</t>
+  </si>
+  <si>
+    <t>{0}天前</t>
+  </si>
+  <si>
+    <t>{0}小时前</t>
   </si>
   <si>
     <t>开始游戏</t>
@@ -144,7 +213,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,27 +231,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -686,52 +734,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,83 +788,83 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -830,16 +878,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -848,16 +893,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
@@ -866,16 +908,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1203,10 +1242,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN15"/>
+  <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1241,11 +1280,11 @@
         <v>3</v>
       </c>
       <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1256,7 +1295,7 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
-      <c r="S1" s="9"/>
+      <c r="S1" s="8"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
@@ -1280,33 +1319,33 @@
       <c r="AN1" s="3"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:40">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="8"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
@@ -1330,27 +1369,27 @@
       <c r="AN2" s="3"/>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:40">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="8"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -1387,11 +1426,11 @@
         <v>12</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1402,7 +1441,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="9"/>
+      <c r="S4" s="8"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1437,19 +1476,19 @@
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="5"/>
@@ -1460,7 +1499,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="9"/>
+      <c r="S5" s="8"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -1487,139 +1526,523 @@
       <c r="B6" s="3">
         <v>10000001</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="20"/>
-      <c r="R6" s="20"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:40">
       <c r="B7" s="3">
         <v>10000002</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="R7" s="16"/>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="B8" s="3">
+        <v>10000003</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="B9" s="3">
+        <v>10000004</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="B10" s="3">
+        <v>10000005</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="R10" s="16"/>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="B11" s="3">
+        <v>10000006</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="R11" s="16"/>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="B12" s="3">
+        <v>10000007</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="B13" s="3">
+        <v>10000008</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="R13" s="16"/>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="B14" s="3">
+        <v>10000009</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="R14" s="16"/>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="B15" s="3">
+        <v>10000010</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="R15" s="16"/>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="B16" s="3">
+        <v>10000011</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="R16" s="16"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="3">
+        <v>10000012</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="3">
+        <v>10000013</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="R18" s="16"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="3">
+        <v>10000014</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="20"/>
-      <c r="R7" s="20"/>
-    </row>
-    <row r="8" spans="1:40">
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="R8" s="20"/>
-    </row>
-    <row r="9" spans="1:40">
-      <c r="D9" s="21"/>
-      <c r="O9" s="20"/>
-      <c r="R9" s="20"/>
-    </row>
-    <row r="10" spans="1:40">
-      <c r="D10" s="18"/>
-      <c r="O10" s="20"/>
-      <c r="R10" s="20"/>
-    </row>
-    <row r="11" spans="1:40">
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="R11" s="20"/>
-    </row>
-    <row r="12" spans="1:40">
-      <c r="D12" s="21"/>
-      <c r="O12" s="20"/>
-      <c r="R12" s="20"/>
-    </row>
-    <row r="13" spans="1:40">
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="O13" s="22"/>
-      <c r="R13" s="20"/>
-    </row>
-    <row r="14" spans="1:40">
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="O14" s="22"/>
-      <c r="R14" s="20"/>
-    </row>
-    <row r="15" spans="1:40">
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="R15" s="20"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="R19" s="16"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="3">
+        <v>10000015</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="R20" s="16"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="3">
+        <v>10000016</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="R21" s="16"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="3">
+        <v>10000017</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="R22" s="16"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="3">
+        <v>10000018</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="R23" s="16"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="3">
+        <v>10000019</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="R24" s="16"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="3">
+        <v>10000020</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="R25" s="16"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="3">
+        <v>10000021</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="R26" s="16"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="3">
+        <v>10000022</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="R27" s="16"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="3">
+        <v>10000023</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="R28" s="16"/>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="3">
+        <v>10000024</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="16"/>
+      <c r="R29" s="16"/>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="3">
+        <v>10000025</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O30" s="16"/>
+      <c r="R30" s="16"/>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="D31" s="17"/>
+      <c r="O31" s="16"/>
+      <c r="R31" s="16"/>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="C32" s="16"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="R32" s="16"/>
+    </row>
+    <row r="33" spans="3:18">
+      <c r="D33" s="18"/>
+      <c r="O33" s="16"/>
+      <c r="R33" s="16"/>
+    </row>
+    <row r="34" spans="3:18">
+      <c r="C34" s="16"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="O34" s="19"/>
+      <c r="R34" s="16"/>
+    </row>
+    <row r="35" spans="3:18">
+      <c r="C35" s="16"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="O35" s="19"/>
+      <c r="R35" s="16"/>
+    </row>
+    <row r="36" spans="3:18">
+      <c r="C36" s="16"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="R36" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
